--- a/Documentation/Annexe/UsesCases_Scénario/Use_case_Antoine-Roulin.xlsx
+++ b/Documentation/Annexe/UsesCases_Scénario/Use_case_Antoine-Roulin.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\1ère Année CFC\Module I-CT\431\Projet_Bataille-Navale_Antoine-Roulin\Uses cases + Scénario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BatailleNavale\BatailleNavale\Documentation\Annexe\UsesCases_Scénario\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4704E1BE-7D1F-4BA5-86B1-907C2FA701B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="5850" yWindow="2100" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="use case btn" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>EN TANT QUE</t>
   </si>
@@ -77,22 +78,19 @@
     <t>Battre son score précédant et le meilleure</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Afficher les règles de la bataille navale</t>
   </si>
   <si>
     <t>Apprendre les règles</t>
   </si>
   <si>
-    <t>BTN04 - Afficher l'aide du score</t>
+    <t>BTN04 - Afficher l'aide du jeu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,11 +505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -649,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -665,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -673,14 +671,16 @@
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
